--- a/Excel-XLSX/UN-LKA.xlsx
+++ b/Excel-XLSX/UN-LKA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>nY79ip</t>
+    <t>gUe1ED</t>
   </si>
   <si>
     <t>1993</t>
@@ -309,6 +309,9 @@
     <t>2023</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
@@ -420,9 +423,6 @@
     <t>IRN</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
@@ -738,10 +738,10 @@
     <t>111</t>
   </si>
   <si>
-    <t>7148</t>
-  </si>
-  <si>
-    <t>1392</t>
+    <t>4806</t>
+  </si>
+  <si>
+    <t>3734</t>
   </si>
   <si>
     <t>123</t>
@@ -816,45 +816,45 @@
     <t>132</t>
   </si>
   <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>NEP</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
     <t>140</t>
   </si>
   <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>NEP</t>
-  </si>
-  <si>
-    <t>NPL</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
     <t>147</t>
   </si>
   <si>
@@ -870,15 +870,15 @@
     <t>144</t>
   </si>
   <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
     <t>145</t>
   </si>
   <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
     <t>176</t>
   </si>
   <si>
@@ -891,109 +891,106 @@
     <t>333</t>
   </si>
   <si>
+    <t>164</t>
+  </si>
+  <si>
     <t>148</t>
   </si>
   <si>
-    <t>164</t>
+    <t>192</t>
   </si>
   <si>
     <t>149</t>
   </si>
   <si>
-    <t>192</t>
+    <t>217</t>
   </si>
   <si>
     <t>150</t>
   </si>
   <si>
-    <t>217</t>
+    <t>1443</t>
   </si>
   <si>
     <t>151</t>
   </si>
   <si>
-    <t>1443</t>
+    <t>372</t>
+  </si>
+  <si>
+    <t>832</t>
   </si>
   <si>
     <t>152</t>
   </si>
   <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>832</t>
+    <t>631</t>
+  </si>
+  <si>
+    <t>454</t>
   </si>
   <si>
     <t>153</t>
   </si>
   <si>
-    <t>631</t>
-  </si>
-  <si>
-    <t>454</t>
+    <t>479</t>
+  </si>
+  <si>
+    <t>438</t>
   </si>
   <si>
     <t>154</t>
   </si>
   <si>
-    <t>479</t>
-  </si>
-  <si>
-    <t>438</t>
+    <t>600</t>
+  </si>
+  <si>
+    <t>536</t>
   </si>
   <si>
     <t>155</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>536</t>
+    <t>558</t>
+  </si>
+  <si>
+    <t>676</t>
   </si>
   <si>
     <t>156</t>
   </si>
   <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>676</t>
+    <t>800</t>
+  </si>
+  <si>
+    <t>284</t>
   </si>
   <si>
     <t>157</t>
   </si>
   <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>284</t>
+    <t>776</t>
+  </si>
+  <si>
+    <t>177</t>
   </si>
   <si>
     <t>158</t>
   </si>
   <si>
-    <t>776</t>
-  </si>
-  <si>
-    <t>177</t>
+    <t>709</t>
   </si>
   <si>
     <t>159</t>
   </si>
   <si>
-    <t>709</t>
-  </si>
-  <si>
     <t>347</t>
   </si>
   <si>
     <t>196</t>
   </si>
   <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>197</t>
+    <t>190</t>
   </si>
   <si>
     <t>162</t>
@@ -1005,30 +1002,30 @@
     <t>SRB</t>
   </si>
   <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
     <t>163</t>
   </si>
   <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
   </si>
   <si>
     <t>165</t>
   </si>
   <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
     <t>166</t>
   </si>
   <si>
@@ -1041,36 +1038,36 @@
     <t>170</t>
   </si>
   <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
     <t>171</t>
   </si>
   <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
     <t>173</t>
   </si>
   <si>
     <t>174</t>
   </si>
   <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
     <t>178</t>
   </si>
   <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
     <t>179</t>
   </si>
   <si>
@@ -1092,52 +1089,46 @@
     <t>186</t>
   </si>
   <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
     <t>187</t>
   </si>
   <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
     <t>188</t>
   </si>
   <si>
     <t>189</t>
   </si>
   <si>
-    <t>190</t>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
   </si>
   <si>
     <t>191</t>
   </si>
   <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
     <t>1992</t>
-  </si>
-  <si>
-    <t>193</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1513,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V194"/>
+  <dimension ref="A1:V193"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1662,8 +1653,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -1730,8 +1721,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1798,8 +1789,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1866,8 +1857,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1934,8 +1925,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -2002,8 +1993,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -2070,8 +2061,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -2138,8 +2129,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -2206,8 +2197,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -2274,8 +2265,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -2342,8 +2333,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -2410,8 +2401,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -2478,8 +2469,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -2546,8 +2537,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -2614,8 +2605,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -2682,8 +2673,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -2750,8 +2741,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -2818,8 +2809,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -2886,8 +2877,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -2954,8 +2945,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -3022,8 +3013,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -3090,8 +3081,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -3158,8 +3149,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -3226,8 +3217,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -3294,8 +3285,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -3407,7 +3398,7 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>31</v>
@@ -3445,7 +3436,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>74</v>
@@ -3454,13 +3445,13 @@
         <v>73</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -3498,8 +3489,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -3513,7 +3504,7 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>84</v>
@@ -3522,13 +3513,13 @@
         <v>73</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -3566,8 +3557,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -3581,7 +3572,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>88</v>
@@ -3590,13 +3581,13 @@
         <v>73</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -3634,8 +3625,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -3649,7 +3640,7 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>96</v>
@@ -3658,13 +3649,13 @@
         <v>73</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3682,7 +3673,7 @@
         <v>31</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>31</v>
@@ -3717,7 +3708,7 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>94</v>
@@ -3726,13 +3717,13 @@
         <v>87</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3785,7 +3776,7 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>96</v>
@@ -3794,13 +3785,13 @@
         <v>87</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3859,16 +3850,16 @@
         <v>55</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3906,8 +3897,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -3921,22 +3912,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3974,8 +3965,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -3989,22 +3980,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -4042,8 +4033,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -4057,22 +4048,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -4110,8 +4101,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -4125,22 +4116,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -4178,8 +4169,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -4193,22 +4184,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -4246,8 +4237,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -4261,22 +4252,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -4314,8 +4305,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -4329,22 +4320,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4382,8 +4373,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -4397,22 +4388,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4450,8 +4441,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -4465,22 +4456,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4518,8 +4509,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -4533,22 +4524,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4586,8 +4577,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46">
@@ -4607,16 +4598,16 @@
         <v>88</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4654,8 +4645,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47">
@@ -4669,22 +4660,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4722,8 +4713,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48">
@@ -4737,22 +4728,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4805,22 +4796,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4873,7 +4864,7 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>54</v>
@@ -4882,13 +4873,13 @@
         <v>68</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4926,8 +4917,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -4941,7 +4932,7 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>55</v>
@@ -4950,13 +4941,13 @@
         <v>68</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4994,8 +4985,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52">
@@ -5009,7 +5000,7 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>94</v>
@@ -5018,13 +5009,13 @@
         <v>68</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -5077,22 +5068,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -5130,8 +5121,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54">
@@ -5145,22 +5136,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -5198,8 +5189,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55">
@@ -5219,16 +5210,16 @@
         <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -5266,8 +5257,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -5287,16 +5278,16 @@
         <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -5334,8 +5325,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57">
@@ -5355,16 +5346,16 @@
         <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5402,8 +5393,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -5423,16 +5414,16 @@
         <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5470,8 +5461,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -5491,16 +5482,16 @@
         <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5538,8 +5529,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60">
@@ -5559,16 +5550,16 @@
         <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5606,8 +5597,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61">
@@ -5627,16 +5618,16 @@
         <v>88</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5674,8 +5665,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -5695,16 +5686,16 @@
         <v>91</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5742,8 +5733,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63">
@@ -5763,16 +5754,16 @@
         <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5831,16 +5822,16 @@
         <v>96</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5855,10 +5846,10 @@
         <v>30</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>31</v>
@@ -5946,8 +5937,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66">
@@ -6014,8 +6005,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67">
@@ -6082,8 +6073,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68">
@@ -6150,8 +6141,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69">
@@ -6218,8 +6209,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70">
@@ -6233,7 +6224,7 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>154</v>
@@ -6286,8 +6277,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71">
@@ -6354,8 +6345,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72">
@@ -6422,8 +6413,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -6490,8 +6481,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74">
@@ -6558,8 +6549,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75">
@@ -6626,8 +6617,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76">
@@ -6694,8 +6685,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="77">
@@ -6762,8 +6753,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -6830,8 +6821,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79">
@@ -6898,8 +6889,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80">
@@ -7102,8 +7093,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83">
@@ -7170,8 +7161,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84">
@@ -7238,8 +7229,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="85">
@@ -7306,8 +7297,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="86">
@@ -7374,8 +7365,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="87">
@@ -7442,8 +7433,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88">
@@ -7510,8 +7501,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="89">
@@ -7578,8 +7569,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90">
@@ -7646,8 +7637,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="91">
@@ -7714,8 +7705,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92">
@@ -7729,7 +7720,7 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>48</v>
@@ -7782,8 +7773,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="93">
@@ -7850,8 +7841,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>33</v>
+      <c r="V93" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="94">
@@ -7918,8 +7909,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="95">
@@ -7986,8 +7977,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -8054,8 +8045,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -8122,8 +8113,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98">
@@ -8190,8 +8181,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -8208,7 +8199,7 @@
         <v>202</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>28</v>
@@ -8258,8 +8249,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="100">
@@ -8326,8 +8317,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="101">
@@ -8394,8 +8385,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="102">
@@ -8462,8 +8453,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103">
@@ -8530,8 +8521,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="104">
@@ -8598,8 +8589,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="105">
@@ -8666,8 +8657,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="106">
@@ -8734,8 +8725,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="107">
@@ -8802,8 +8793,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="108">
@@ -8870,8 +8861,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="109">
@@ -8938,8 +8929,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="110">
@@ -9006,8 +8997,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="111">
@@ -9210,8 +9201,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>33</v>
+      <c r="V113" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="114">
@@ -9258,7 +9249,7 @@
         <v>31</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P114" s="2" t="s">
         <v>31</v>
@@ -9278,8 +9269,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="115">
@@ -9346,8 +9337,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="116">
@@ -9414,8 +9405,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>33</v>
+      <c r="V116" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="117">
@@ -9482,8 +9473,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>33</v>
+      <c r="V117" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="118">
@@ -9550,8 +9541,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="119">
@@ -9618,8 +9609,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="120">
@@ -9686,8 +9677,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>33</v>
+      <c r="V120" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="121">
@@ -9754,8 +9745,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="122">
@@ -9772,7 +9763,7 @@
         <v>256</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>251</v>
@@ -9822,8 +9813,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="123">
@@ -9890,8 +9881,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="124">
@@ -9958,8 +9949,8 @@
       <c r="U124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>33</v>
+      <c r="V124" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="125">
@@ -10026,8 +10017,8 @@
       <c r="U125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>33</v>
+      <c r="V125" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="126">
@@ -10094,8 +10085,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>33</v>
+      <c r="V126" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="127">
@@ -10162,8 +10153,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>33</v>
+      <c r="V127" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="128">
@@ -10207,7 +10198,7 @@
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O128" s="2" t="s">
         <v>31</v>
@@ -10230,8 +10221,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>33</v>
+      <c r="V128" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="129">
@@ -10275,7 +10266,7 @@
         <v>30</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O129" s="2" t="s">
         <v>31</v>
@@ -10298,8 +10289,8 @@
       <c r="U129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>33</v>
+      <c r="V129" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="130">
@@ -10366,8 +10357,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>33</v>
+      <c r="V130" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="131">
@@ -10434,8 +10425,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>33</v>
+      <c r="V131" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="132">
@@ -10479,7 +10470,7 @@
         <v>30</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O132" s="2" t="s">
         <v>31</v>
@@ -10502,8 +10493,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>33</v>
+      <c r="V132" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="133">
@@ -10547,7 +10538,7 @@
         <v>30</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O133" s="2" t="s">
         <v>31</v>
@@ -10615,7 +10606,7 @@
         <v>30</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="O134" s="2" t="s">
         <v>31</v>
@@ -10653,22 +10644,22 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F135" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="H135" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="I135" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -10706,8 +10697,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="136">
@@ -10727,16 +10718,16 @@
         <v>78</v>
       </c>
       <c r="F136" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="H136" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H136" s="1" t="s">
+      <c r="I136" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>28</v>
@@ -10774,8 +10765,8 @@
       <c r="U136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>33</v>
+      <c r="V136" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="137">
@@ -10789,22 +10780,22 @@
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F137" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="H137" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="I137" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>28</v>
@@ -10842,8 +10833,8 @@
       <c r="U137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>33</v>
+      <c r="V137" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="138">
@@ -10857,22 +10848,22 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F138" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="H138" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H138" s="1" t="s">
+      <c r="I138" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>28</v>
@@ -10910,8 +10901,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="139">
@@ -10925,22 +10916,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F139" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="H139" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H139" s="1" t="s">
+      <c r="I139" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>28</v>
@@ -10978,8 +10969,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="140">
@@ -10993,22 +10984,22 @@
         <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F140" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="H140" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="I140" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>28</v>
@@ -11046,8 +11037,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>33</v>
+      <c r="V140" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="141">
@@ -11061,22 +11052,22 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F141" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="H141" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="I141" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>28</v>
@@ -11129,22 +11120,22 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>28</v>
@@ -11159,10 +11150,10 @@
         <v>30</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="P142" s="2" t="s">
         <v>31</v>
@@ -11200,7 +11191,7 @@
         <v>89</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>279</v>
@@ -11227,10 +11218,10 @@
         <v>30</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>120</v>
+        <v>248</v>
       </c>
       <c r="P143" s="2" t="s">
         <v>31</v>
@@ -11250,8 +11241,8 @@
       <c r="U143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>33</v>
+      <c r="V143" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="144">
@@ -11268,7 +11259,7 @@
         <v>282</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>279</v>
@@ -11295,10 +11286,10 @@
         <v>30</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>172</v>
+        <v>271</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P144" s="2" t="s">
         <v>31</v>
@@ -11318,8 +11309,8 @@
       <c r="U144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>33</v>
+      <c r="V144" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="145">
@@ -11336,7 +11327,7 @@
         <v>283</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>279</v>
@@ -11363,10 +11354,10 @@
         <v>30</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="P145" s="2" t="s">
         <v>31</v>
@@ -11386,8 +11377,8 @@
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>33</v>
+      <c r="V145" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="146">
@@ -11401,10 +11392,10 @@
         <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>279</v>
@@ -11431,10 +11422,10 @@
         <v>30</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P146" s="2" t="s">
         <v>31</v>
@@ -11454,8 +11445,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>33</v>
+      <c r="V146" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="147">
@@ -11472,7 +11463,7 @@
         <v>83</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>279</v>
@@ -11499,10 +11490,10 @@
         <v>30</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P147" s="2" t="s">
         <v>31</v>
@@ -11522,8 +11513,8 @@
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>33</v>
+      <c r="V147" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="148">
@@ -11540,7 +11531,7 @@
         <v>279</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>279</v>
@@ -11567,10 +11558,10 @@
         <v>30</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="P148" s="2" t="s">
         <v>31</v>
@@ -11590,8 +11581,8 @@
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>33</v>
+      <c r="V148" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="149">
@@ -11605,10 +11596,10 @@
         <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>279</v>
@@ -11635,10 +11626,10 @@
         <v>30</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="P149" s="2" t="s">
         <v>31</v>
@@ -11658,8 +11649,8 @@
       <c r="U149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>33</v>
+      <c r="V149" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="150">
@@ -11673,10 +11664,10 @@
         <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>279</v>
@@ -11703,10 +11694,10 @@
         <v>30</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P150" s="2" t="s">
         <v>31</v>
@@ -11726,8 +11717,8 @@
       <c r="U150" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>33</v>
+      <c r="V150" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="151">
@@ -11741,10 +11732,10 @@
         <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>279</v>
@@ -11771,10 +11762,10 @@
         <v>30</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P151" s="2" t="s">
         <v>31</v>
@@ -11794,8 +11785,8 @@
       <c r="U151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>33</v>
+      <c r="V151" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="152">
@@ -11809,10 +11800,10 @@
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>279</v>
@@ -11839,10 +11830,10 @@
         <v>30</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P152" s="2" t="s">
         <v>31</v>
@@ -11862,8 +11853,8 @@
       <c r="U152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>33</v>
+      <c r="V152" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="153">
@@ -11877,10 +11868,10 @@
         <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>279</v>
@@ -11907,10 +11898,10 @@
         <v>30</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P153" s="2" t="s">
         <v>31</v>
@@ -11930,8 +11921,8 @@
       <c r="U153" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>33</v>
+      <c r="V153" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="154">
@@ -11945,10 +11936,10 @@
         <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>279</v>
@@ -11975,10 +11966,10 @@
         <v>30</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P154" s="2" t="s">
         <v>31</v>
@@ -11998,8 +11989,8 @@
       <c r="U154" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>33</v>
+      <c r="V154" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="155">
@@ -12013,10 +12004,10 @@
         <v>22</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>279</v>
@@ -12043,10 +12034,10 @@
         <v>30</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P155" s="2" t="s">
         <v>31</v>
@@ -12066,8 +12057,8 @@
       <c r="U155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>33</v>
+      <c r="V155" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="156">
@@ -12081,10 +12072,10 @@
         <v>22</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>279</v>
@@ -12111,10 +12102,10 @@
         <v>30</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P156" s="2" t="s">
         <v>31</v>
@@ -12134,8 +12125,8 @@
       <c r="U156" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>33</v>
+      <c r="V156" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="157">
@@ -12149,10 +12140,10 @@
         <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>279</v>
@@ -12179,10 +12170,10 @@
         <v>30</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P157" s="2" t="s">
         <v>31</v>
@@ -12202,8 +12193,8 @@
       <c r="U157" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>33</v>
+      <c r="V157" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="158">
@@ -12217,10 +12208,10 @@
         <v>22</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>279</v>
@@ -12247,10 +12238,10 @@
         <v>30</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P158" s="2" t="s">
         <v>31</v>
@@ -12270,8 +12261,8 @@
       <c r="U158" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>33</v>
+      <c r="V158" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="159">
@@ -12285,10 +12276,10 @@
         <v>22</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>279</v>
@@ -12315,10 +12306,10 @@
         <v>30</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="P159" s="2" t="s">
         <v>31</v>
@@ -12338,8 +12329,8 @@
       <c r="U159" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>33</v>
+      <c r="V159" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="160">
@@ -12353,10 +12344,10 @@
         <v>22</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>279</v>
@@ -12383,10 +12374,10 @@
         <v>30</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="P160" s="2" t="s">
         <v>31</v>
@@ -12406,8 +12397,8 @@
       <c r="U160" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>33</v>
+      <c r="V160" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="161">
@@ -12424,7 +12415,7 @@
         <v>85</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>279</v>
@@ -12451,10 +12442,10 @@
         <v>30</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P161" s="2" t="s">
         <v>31</v>
@@ -12489,22 +12480,22 @@
         <v>22</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>28</v>
@@ -12519,10 +12510,10 @@
         <v>30</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>325</v>
+        <v>31</v>
       </c>
       <c r="P162" s="2" t="s">
         <v>31</v>
@@ -12557,22 +12548,22 @@
         <v>22</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>28</v>
@@ -12610,8 +12601,8 @@
       <c r="U163" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>33</v>
+      <c r="V163" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="164">
@@ -12625,22 +12616,22 @@
         <v>22</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F164" s="2" t="s">
+      <c r="H164" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="I164" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>28</v>
@@ -12678,8 +12669,8 @@
       <c r="U164" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>33</v>
+      <c r="V164" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="165">
@@ -12693,22 +12684,22 @@
         <v>22</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>28</v>
@@ -12723,11 +12714,11 @@
         <v>30</v>
       </c>
       <c r="N165" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O165" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O165" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="P165" s="2" t="s">
         <v>31</v>
       </c>
@@ -12746,8 +12737,8 @@
       <c r="U165" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>33</v>
+      <c r="V165" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="166">
@@ -12761,22 +12752,22 @@
         <v>22</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H166" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G166" s="1" t="s">
+      <c r="I166" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>28</v>
@@ -12814,8 +12805,8 @@
       <c r="U166" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>33</v>
+      <c r="V166" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="167">
@@ -12829,23 +12820,23 @@
         <v>22</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G167" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I167" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H167" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="J167" s="2" t="s">
         <v>28</v>
       </c>
@@ -12859,10 +12850,10 @@
         <v>30</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P167" s="2" t="s">
         <v>31</v>
@@ -12882,8 +12873,8 @@
       <c r="U167" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>33</v>
+      <c r="V167" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="168">
@@ -12900,19 +12891,19 @@
         <v>289</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G168" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I168" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>28</v>
@@ -12930,7 +12921,7 @@
         <v>42</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="P168" s="2" t="s">
         <v>31</v>
@@ -12950,8 +12941,8 @@
       <c r="U168" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>33</v>
+      <c r="V168" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="169">
@@ -12965,23 +12956,23 @@
         <v>22</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G169" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I169" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H169" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="J169" s="2" t="s">
         <v>28</v>
       </c>
@@ -12995,10 +12986,10 @@
         <v>30</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P169" s="2" t="s">
         <v>31</v>
@@ -13018,8 +13009,8 @@
       <c r="U169" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>33</v>
+      <c r="V169" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="170">
@@ -13033,23 +13024,23 @@
         <v>22</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G170" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I170" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H170" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="J170" s="2" t="s">
         <v>28</v>
       </c>
@@ -13063,7 +13054,7 @@
         <v>30</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O170" s="2" t="s">
         <v>31</v>
@@ -13101,22 +13092,22 @@
         <v>22</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="G171" s="1" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>28</v>
@@ -13131,10 +13122,10 @@
         <v>30</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="P171" s="2" t="s">
         <v>31</v>
@@ -13169,22 +13160,22 @@
         <v>22</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G172" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F172" s="2" t="s">
+      <c r="H172" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="I172" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>28</v>
@@ -13202,7 +13193,7 @@
         <v>42</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="P172" s="2" t="s">
         <v>31</v>
@@ -13222,8 +13213,8 @@
       <c r="U172" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>33</v>
+      <c r="V172" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="173">
@@ -13237,22 +13228,22 @@
         <v>22</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F173" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H173" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G173" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="I173" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>28</v>
@@ -13267,10 +13258,10 @@
         <v>30</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="P173" s="2" t="s">
         <v>31</v>
@@ -13290,8 +13281,8 @@
       <c r="U173" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>33</v>
+      <c r="V173" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="174">
@@ -13305,22 +13296,22 @@
         <v>22</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F174" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H174" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G174" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="I174" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>28</v>
@@ -13335,10 +13326,10 @@
         <v>30</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P174" s="2" t="s">
         <v>31</v>
@@ -13358,8 +13349,8 @@
       <c r="U174" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>33</v>
+      <c r="V174" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="175">
@@ -13373,22 +13364,22 @@
         <v>22</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F175" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H175" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G175" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="I175" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>28</v>
@@ -13426,8 +13417,8 @@
       <c r="U175" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>33</v>
+      <c r="V175" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="176">
@@ -13441,22 +13432,22 @@
         <v>22</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F176" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H176" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="I176" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>28</v>
@@ -13471,7 +13462,7 @@
         <v>30</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="O176" s="2" t="s">
         <v>31</v>
@@ -13494,8 +13485,8 @@
       <c r="U176" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>33</v>
+      <c r="V176" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="177">
@@ -13512,19 +13503,19 @@
         <v>287</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F177" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H177" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="I177" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>28</v>
@@ -13562,8 +13553,8 @@
       <c r="U177" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V177" s="1" t="s">
-        <v>33</v>
+      <c r="V177" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="178">
@@ -13577,22 +13568,22 @@
         <v>22</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>28</v>
@@ -13607,10 +13598,10 @@
         <v>30</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P178" s="2" t="s">
         <v>31</v>
@@ -13630,8 +13621,8 @@
       <c r="U178" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>33</v>
+      <c r="V178" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="179">
@@ -13645,22 +13636,22 @@
         <v>22</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F179" s="2" t="s">
+      <c r="H179" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="I179" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>28</v>
@@ -13678,7 +13669,7 @@
         <v>31</v>
       </c>
       <c r="O179" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P179" s="2" t="s">
         <v>31</v>
@@ -13698,8 +13689,8 @@
       <c r="U179" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>33</v>
+      <c r="V179" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="180">
@@ -13713,22 +13704,22 @@
         <v>22</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F180" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H180" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G180" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="I180" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>28</v>
@@ -13743,10 +13734,10 @@
         <v>30</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="P180" s="2" t="s">
         <v>31</v>
@@ -13766,8 +13757,8 @@
       <c r="U180" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>33</v>
+      <c r="V180" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="181">
@@ -13781,22 +13772,22 @@
         <v>22</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F181" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H181" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G181" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="I181" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>28</v>
@@ -13814,7 +13805,7 @@
         <v>49</v>
       </c>
       <c r="O181" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P181" s="2" t="s">
         <v>31</v>
@@ -13834,8 +13825,8 @@
       <c r="U181" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>33</v>
+      <c r="V181" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="182">
@@ -13849,22 +13840,22 @@
         <v>22</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F182" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H182" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="I182" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>28</v>
@@ -13879,10 +13870,10 @@
         <v>30</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O182" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P182" s="2" t="s">
         <v>31</v>
@@ -13902,8 +13893,8 @@
       <c r="U182" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>33</v>
+      <c r="V182" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="183">
@@ -13917,22 +13908,22 @@
         <v>22</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F183" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G183" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="I183" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>28</v>
@@ -13947,7 +13938,7 @@
         <v>30</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O183" s="2" t="s">
         <v>31</v>
@@ -13970,8 +13961,8 @@
       <c r="U183" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V183" s="1" t="s">
-        <v>33</v>
+      <c r="V183" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="184">
@@ -13985,22 +13976,22 @@
         <v>22</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F184" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H184" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G184" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="I184" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>28</v>
@@ -14015,10 +14006,10 @@
         <v>30</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="O184" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="P184" s="2" t="s">
         <v>31</v>
@@ -14038,8 +14029,8 @@
       <c r="U184" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V184" s="1" t="s">
-        <v>33</v>
+      <c r="V184" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="185">
@@ -14053,22 +14044,22 @@
         <v>22</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F185" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H185" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G185" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="I185" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>28</v>
@@ -14083,10 +14074,10 @@
         <v>30</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O185" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P185" s="2" t="s">
         <v>31</v>
@@ -14106,8 +14097,8 @@
       <c r="U185" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>33</v>
+      <c r="V185" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="186">
@@ -14121,22 +14112,22 @@
         <v>22</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F186" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H186" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G186" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="I186" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>28</v>
@@ -14189,22 +14180,22 @@
         <v>22</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="G187" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>28</v>
@@ -14219,7 +14210,7 @@
         <v>30</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="O187" s="2" t="s">
         <v>31</v>
@@ -14234,7 +14225,7 @@
         <v>31</v>
       </c>
       <c r="S187" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="T187" s="2" t="s">
         <v>31</v>
@@ -14257,23 +14248,23 @@
         <v>22</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F188" s="2" t="s">
+      <c r="H188" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="I188" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="H188" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="J188" s="2" t="s">
         <v>28</v>
       </c>
@@ -14302,7 +14293,7 @@
         <v>31</v>
       </c>
       <c r="S188" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="T188" s="2" t="s">
         <v>31</v>
@@ -14310,8 +14301,8 @@
       <c r="U188" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V188" s="1" t="s">
-        <v>33</v>
+      <c r="V188" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="189">
@@ -14325,23 +14316,23 @@
         <v>22</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F189" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H189" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="I189" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="H189" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="J189" s="2" t="s">
         <v>28</v>
       </c>
@@ -14370,7 +14361,7 @@
         <v>31</v>
       </c>
       <c r="S189" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T189" s="2" t="s">
         <v>31</v>
@@ -14378,8 +14369,8 @@
       <c r="U189" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>33</v>
+      <c r="V189" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="190">
@@ -14393,23 +14384,23 @@
         <v>22</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F190" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H190" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="I190" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="H190" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="J190" s="2" t="s">
         <v>28</v>
       </c>
@@ -14438,7 +14429,7 @@
         <v>31</v>
       </c>
       <c r="S190" s="2" t="s">
-        <v>112</v>
+        <v>239</v>
       </c>
       <c r="T190" s="2" t="s">
         <v>31</v>
@@ -14461,22 +14452,22 @@
         <v>22</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="G191" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="J191" s="2" t="s">
         <v>28</v>
@@ -14491,7 +14482,7 @@
         <v>30</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="O191" s="2" t="s">
         <v>31</v>
@@ -14506,7 +14497,7 @@
         <v>31</v>
       </c>
       <c r="S191" s="2" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="T191" s="2" t="s">
         <v>31</v>
@@ -14529,23 +14520,23 @@
         <v>22</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="H192" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F192" s="2" t="s">
+      <c r="I192" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G192" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="J192" s="2" t="s">
         <v>28</v>
       </c>
@@ -14559,7 +14550,7 @@
         <v>30</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="O192" s="2" t="s">
         <v>31</v>
@@ -14582,8 +14573,8 @@
       <c r="U192" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>33</v>
+      <c r="V192" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="193">
@@ -14597,23 +14588,23 @@
         <v>22</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>372</v>
+        <v>24</v>
       </c>
       <c r="F193" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I193" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G193" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="J193" s="2" t="s">
         <v>28</v>
       </c>
@@ -14627,7 +14618,7 @@
         <v>30</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O193" s="2" t="s">
         <v>31</v>
@@ -14650,76 +14641,8 @@
       <c r="U193" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V193" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I194" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="J194" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K194" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L194" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M194" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N194" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O194" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P194" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q194" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R194" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S194" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T194" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U194" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V194" s="1" t="s">
-        <v>33</v>
+      <c r="V193" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-LKA.xlsx
+++ b/Excel-XLSX/UN-LKA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>gUe1ED</t>
+    <t>y1mG0k</t>
   </si>
   <si>
     <t>1991</t>
@@ -1152,13 +1152,7 @@
     <t>199</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>202</t>
+    <t>229</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1537,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V203"/>
+  <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -14716,7 +14710,7 @@
         <v>31</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="O194" s="2" t="s">
         <v>33</v>
@@ -14760,16 +14754,16 @@
         <v>372</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>253</v>
+        <v>345</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>254</v>
+        <v>346</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>254</v>
+        <v>346</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>29</v>
@@ -14828,16 +14822,16 @@
         <v>372</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>345</v>
+        <v>142</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>346</v>
+        <v>143</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>346</v>
+        <v>144</v>
       </c>
       <c r="J196" s="2" t="s">
         <v>29</v>
@@ -14852,10 +14846,10 @@
         <v>31</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O196" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P196" s="2" t="s">
         <v>33</v>
@@ -14896,16 +14890,16 @@
         <v>372</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="J197" s="2" t="s">
         <v>29</v>
@@ -14920,7 +14914,7 @@
         <v>31</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O197" s="2" t="s">
         <v>33</v>
@@ -14929,7 +14923,7 @@
         <v>33</v>
       </c>
       <c r="Q197" s="2" t="s">
-        <v>33</v>
+        <v>365</v>
       </c>
       <c r="R197" s="2" t="s">
         <v>33</v>
@@ -14964,16 +14958,16 @@
         <v>372</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>29</v>
@@ -14988,16 +14982,16 @@
         <v>31</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="P198" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q198" s="2" t="s">
-        <v>365</v>
+        <v>33</v>
       </c>
       <c r="R198" s="2" t="s">
         <v>33</v>
@@ -15032,16 +15026,16 @@
         <v>372</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>29</v>
@@ -15056,10 +15050,10 @@
         <v>31</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="O199" s="2" t="s">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c r="P199" s="2" t="s">
         <v>33</v>
@@ -15100,16 +15094,16 @@
         <v>372</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>115</v>
+        <v>327</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>115</v>
+        <v>328</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>29</v>
@@ -15124,10 +15118,10 @@
         <v>31</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>260</v>
+        <v>33</v>
       </c>
       <c r="O200" s="2" t="s">
-        <v>329</v>
+        <v>33</v>
       </c>
       <c r="P200" s="2" t="s">
         <v>33</v>
@@ -15139,7 +15133,7 @@
         <v>33</v>
       </c>
       <c r="S200" s="2" t="s">
-        <v>33</v>
+        <v>378</v>
       </c>
       <c r="T200" s="2" t="s">
         <v>33</v>
@@ -15148,210 +15142,6 @@
         <v>34</v>
       </c>
       <c r="V200" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J201" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K201" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L201" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M201" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N201" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O201" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P201" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q201" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R201" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S201" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="T201" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U201" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V201" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I202" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J202" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K202" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L202" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M202" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N202" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O202" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P202" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q202" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R202" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S202" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T202" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U202" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V202" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I203" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J203" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K203" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M203" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N203" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O203" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P203" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q203" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R203" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S203" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T203" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U203" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V203" s="2" t="s">
         <v>33</v>
       </c>
     </row>
